--- a/nursery_monitoring/Frag sources.xlsx
+++ b/nursery_monitoring/Frag sources.xlsx
@@ -1,37 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gizmo/Github/emc/nursery_monitoring/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE7B82D-37B8-594D-9FCC-B7727761A0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="sources" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="sources" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="84">
   <si>
     <t>Date</t>
   </si>
@@ -147,7 +127,7 @@
     <t>Friar's Head</t>
   </si>
   <si>
-    <t>APAL1</t>
+    <t>APAL01</t>
   </si>
   <si>
     <t>APAL10</t>
@@ -162,9 +142,15 @@
     <t>Stuck on area around APRO5</t>
   </si>
   <si>
+    <t>N/a</t>
+  </si>
+  <si>
     <t>APAL13</t>
   </si>
   <si>
+    <t>Coordinates taken on surf n turf garmin - originaly GPS 1 - pt 7</t>
+  </si>
+  <si>
     <t>APAL14</t>
   </si>
   <si>
@@ -192,52 +178,43 @@
     <t>North Green</t>
   </si>
   <si>
-    <t>APAL2</t>
+    <t>APAL02</t>
   </si>
   <si>
     <t>APAL20</t>
   </si>
   <si>
-    <t>-61.72319?</t>
-  </si>
-  <si>
     <t>APAL21</t>
   </si>
   <si>
-    <t>Hard to read GPS</t>
-  </si>
-  <si>
-    <t>-61.7?</t>
-  </si>
-  <si>
     <t>APAL22</t>
   </si>
   <si>
     <t>APAL23</t>
   </si>
   <si>
-    <t>APAL3</t>
-  </si>
-  <si>
-    <t>APAL4</t>
-  </si>
-  <si>
-    <t>APAL5</t>
-  </si>
-  <si>
-    <t>APAL6</t>
-  </si>
-  <si>
-    <t>APAL7</t>
-  </si>
-  <si>
-    <t>APAL8</t>
+    <t>APAL03</t>
+  </si>
+  <si>
+    <t>APAL04</t>
+  </si>
+  <si>
+    <t>APAL05</t>
+  </si>
+  <si>
+    <t>APAL06</t>
+  </si>
+  <si>
+    <t>APAL07</t>
+  </si>
+  <si>
+    <t>APAL08</t>
   </si>
   <si>
     <t>ACER26 - Did he mean we are missing APAL8</t>
   </si>
   <si>
-    <t>APAL9</t>
+    <t>APAL09</t>
   </si>
   <si>
     <t>APRO1</t>
@@ -249,10 +226,13 @@
     <t>APRO3</t>
   </si>
   <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>APRO4</t>
   </si>
   <si>
-    <t>Stuck on area around APRO4</t>
+    <t>Coordinates taken on surf n turf garmin - Originally wrong GPS 2 - pt 17</t>
   </si>
   <si>
     <t>APRO5</t>
@@ -262,51 +242,84 @@
   </si>
   <si>
     <t>APRO7</t>
+  </si>
+  <si>
+    <t>APAL24</t>
+  </si>
+  <si>
+    <t>APAL26</t>
+  </si>
+  <si>
+    <t>Coordinates taken on surf n turf garmin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Hells gate </t>
+  </si>
+  <si>
+    <t>APRO11</t>
+  </si>
+  <si>
+    <t>APAL28</t>
+  </si>
+  <si>
+    <t>ACER11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="m/d/yy"/>
+    <numFmt numFmtId="167" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+    </font>
+    <font/>
   </fonts>
   <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -322,13 +335,7 @@
     </fill>
   </fills>
   <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -342,80 +349,128 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="34">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -605,25 +660,20 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -677,9 +727,9 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" s="5">
-        <v>44396</v>
+        <v>44396.0</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>13</v>
@@ -688,18 +738,18 @@
         <v>14</v>
       </c>
       <c r="D2" s="8">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E2" s="8">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="F2" s="9">
-        <v>17.042300000000001</v>
+        <v>17.0423</v>
       </c>
       <c r="G2" s="9">
-        <v>-61.682540000000003</v>
-      </c>
-      <c r="H2" s="6" t="s">
+        <v>-61.68254</v>
+      </c>
+      <c r="H2" s="10" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="6" t="s">
@@ -723,9 +773,9 @@
       <c r="Y2" s="4"/>
       <c r="Z2" s="4"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" s="5">
-        <v>44397</v>
+        <v>44397.0</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>17</v>
@@ -734,20 +784,20 @@
         <v>18</v>
       </c>
       <c r="D3" s="8">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="E3" s="8">
-        <v>7</v>
-      </c>
-      <c r="F3" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="F3" s="11">
         <f>17+4.533/60</f>
         <v>17.07555</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="11">
         <f>-61-40.068/60</f>
         <v>-61.6678</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="10" t="s">
         <v>19</v>
       </c>
       <c r="I3" s="6" t="s">
@@ -771,131 +821,131 @@
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4" s="11">
-        <v>44398</v>
-      </c>
-      <c r="B4" s="12" t="s">
+    <row r="4">
+      <c r="A4" s="12">
+        <v>44398.0</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="14">
-        <v>1</v>
-      </c>
-      <c r="E4" s="14">
-        <v>4</v>
-      </c>
-      <c r="F4" s="15">
-        <v>17.167020000000001</v>
-      </c>
-      <c r="G4" s="15">
-        <v>-61.729959999999998</v>
-      </c>
-      <c r="H4" s="12" t="s">
+      <c r="D4" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="E4" s="15">
+        <v>4.0</v>
+      </c>
+      <c r="F4" s="16">
+        <v>17.16702</v>
+      </c>
+      <c r="G4" s="16">
+        <v>-61.72996</v>
+      </c>
+      <c r="H4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12" t="s">
+      <c r="J4" s="13"/>
+      <c r="K4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="17">
         <v>17.09094</v>
       </c>
-      <c r="M4" s="16">
-        <v>-61.665999999999997</v>
-      </c>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A5" s="11">
-        <v>44398</v>
-      </c>
-      <c r="B5" s="12" t="s">
+      <c r="M4" s="17">
+        <v>-61.666</v>
+      </c>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="18"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="12">
+        <v>44398.0</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="14">
-        <v>2</v>
-      </c>
-      <c r="E5" s="14">
-        <v>8</v>
-      </c>
-      <c r="F5" s="15">
-        <v>17.165140000000001</v>
-      </c>
-      <c r="G5" s="18">
-        <v>-61.731070000000003</v>
-      </c>
-      <c r="H5" s="12" t="s">
+      <c r="D5" s="15">
+        <v>2.0</v>
+      </c>
+      <c r="E5" s="15">
+        <v>8.0</v>
+      </c>
+      <c r="F5" s="16">
+        <v>17.16514</v>
+      </c>
+      <c r="G5" s="19">
+        <v>-61.73107</v>
+      </c>
+      <c r="H5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12" t="s">
+      <c r="J5" s="13"/>
+      <c r="K5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="16">
-        <v>17.067983999999999</v>
-      </c>
-      <c r="M5" s="19">
-        <v>-61.686340999999999</v>
-      </c>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="L5" s="17">
+        <v>17.067984</v>
+      </c>
+      <c r="M5" s="20">
+        <v>-61.686341</v>
+      </c>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="18"/>
+      <c r="Z5" s="18"/>
+    </row>
+    <row r="6">
       <c r="A6" s="5">
-        <v>44398</v>
+        <v>44398.0</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="8">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="E6" s="8">
-        <v>11</v>
-      </c>
-      <c r="F6" s="20">
-        <v>17.165780000000002</v>
-      </c>
-      <c r="G6" s="20">
-        <v>-61.731290000000001</v>
+        <v>11.0</v>
+      </c>
+      <c r="F6" s="21">
+        <v>17.16578</v>
+      </c>
+      <c r="G6" s="21">
+        <v>-61.73129</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>26</v>
@@ -921,9 +971,9 @@
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" s="5">
-        <v>44398</v>
+        <v>44398.0</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>13</v>
@@ -932,16 +982,16 @@
         <v>27</v>
       </c>
       <c r="D7" s="8">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="E7" s="8">
-        <v>13</v>
-      </c>
-      <c r="F7" s="20">
-        <v>17.149069999999998</v>
-      </c>
-      <c r="G7" s="20">
-        <v>-61.723460000000003</v>
+        <v>13.0</v>
+      </c>
+      <c r="F7" s="21">
+        <v>17.14907</v>
+      </c>
+      <c r="G7" s="21">
+        <v>-61.72346</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>28</v>
@@ -967,9 +1017,9 @@
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" s="5">
-        <v>44398</v>
+        <v>44398.0</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>17</v>
@@ -978,15 +1028,15 @@
         <v>29</v>
       </c>
       <c r="D8" s="8">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="E8" s="8">
-        <v>16</v>
-      </c>
-      <c r="F8" s="15">
-        <v>17.139769999999999</v>
-      </c>
-      <c r="G8" s="15">
+        <v>16.0</v>
+      </c>
+      <c r="F8" s="16">
+        <v>17.13977</v>
+      </c>
+      <c r="G8" s="16">
         <v>-61.72128</v>
       </c>
       <c r="H8" s="6" t="s">
@@ -999,11 +1049,11 @@
       <c r="K8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="L8" s="20">
+      <c r="L8" s="21">
         <v>17.14179</v>
       </c>
-      <c r="M8" s="20">
-        <v>-61.721939999999996</v>
+      <c r="M8" s="21">
+        <v>-61.72194</v>
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
@@ -1019,9 +1069,9 @@
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" s="5">
-        <v>44399</v>
+        <v>44399.0</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>17</v>
@@ -1030,16 +1080,16 @@
         <v>32</v>
       </c>
       <c r="D9" s="8">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E9" s="8">
-        <v>6</v>
-      </c>
-      <c r="F9" s="15">
+        <v>6.0</v>
+      </c>
+      <c r="F9" s="16">
         <v>17.0655</v>
       </c>
-      <c r="G9" s="15">
-        <v>-61.662869999999998</v>
+      <c r="G9" s="16">
+        <v>-61.66287</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>33</v>
@@ -1051,11 +1101,11 @@
       <c r="K9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="L9" s="20">
-        <v>17.163219999999999</v>
-      </c>
-      <c r="M9" s="20">
-        <v>-61.731520000000003</v>
+      <c r="L9" s="21">
+        <v>17.16322</v>
+      </c>
+      <c r="M9" s="21">
+        <v>-61.73152</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
@@ -1071,9 +1121,9 @@
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A10" s="21">
-        <v>44404</v>
+    <row r="10">
+      <c r="A10" s="22">
+        <v>44405.0</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>13</v>
@@ -1082,18 +1132,18 @@
         <v>29</v>
       </c>
       <c r="D10" s="8">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E10" s="8">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="F10" s="8">
-        <v>17.140070000000001</v>
+        <v>17.14007</v>
       </c>
       <c r="G10" s="8">
         <v>-61.7209</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="10" t="s">
         <v>36</v>
       </c>
       <c r="I10" s="6" t="s">
@@ -1117,9 +1167,9 @@
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" s="5">
-        <v>44396</v>
+        <v>44396.0</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>13</v>
@@ -1128,18 +1178,18 @@
         <v>37</v>
       </c>
       <c r="D11" s="8">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E11" s="8">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="F11" s="9">
-        <v>17.048169999999999</v>
+        <v>17.04817</v>
       </c>
       <c r="G11" s="9">
-        <v>-61.671909999999997</v>
-      </c>
-      <c r="H11" s="6" t="s">
+        <v>-61.67191</v>
+      </c>
+      <c r="H11" s="23" t="s">
         <v>38</v>
       </c>
       <c r="I11" s="6" t="s">
@@ -1163,9 +1213,9 @@
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" s="5">
-        <v>44398</v>
+        <v>44398.0</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>13</v>
@@ -1174,18 +1224,18 @@
         <v>27</v>
       </c>
       <c r="D12" s="8">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="E12" s="8">
-        <v>12</v>
-      </c>
-      <c r="F12" s="20">
-        <v>17.148980000000002</v>
-      </c>
-      <c r="G12" s="20">
-        <v>-61.723439999999997</v>
-      </c>
-      <c r="H12" s="6" t="s">
+        <v>12.0</v>
+      </c>
+      <c r="F12" s="21">
+        <v>17.14898</v>
+      </c>
+      <c r="G12" s="21">
+        <v>-61.72344</v>
+      </c>
+      <c r="H12" s="10" t="s">
         <v>39</v>
       </c>
       <c r="I12" s="6" t="s">
@@ -1209,9 +1259,9 @@
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" s="5">
-        <v>44398</v>
+        <v>44398.0</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>17</v>
@@ -1220,16 +1270,16 @@
         <v>29</v>
       </c>
       <c r="D13" s="8">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="E13" s="8">
-        <v>14</v>
-      </c>
-      <c r="F13" s="20">
-        <v>17.141210000000001</v>
+        <v>14.0</v>
+      </c>
+      <c r="F13" s="21">
+        <v>17.14121</v>
       </c>
       <c r="G13" s="8">
-        <v>-61.721400000000003</v>
+        <v>-61.7214</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>40</v>
@@ -1237,7 +1287,7 @@
       <c r="I13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="22"/>
+      <c r="J13" s="24"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
@@ -1255,9 +1305,9 @@
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" s="5">
-        <v>44398</v>
+        <v>44398.0</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>17</v>
@@ -1266,15 +1316,15 @@
         <v>29</v>
       </c>
       <c r="D14" s="8">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="E14" s="8">
-        <v>18</v>
-      </c>
-      <c r="F14" s="18">
-        <v>17.139620000000001</v>
-      </c>
-      <c r="G14" s="18">
+        <v>18.0</v>
+      </c>
+      <c r="F14" s="19">
+        <v>17.13962</v>
+      </c>
+      <c r="G14" s="19">
         <v>-61.72119</v>
       </c>
       <c r="H14" s="6" t="s">
@@ -1291,7 +1341,7 @@
         <v>17.14179</v>
       </c>
       <c r="M14" s="8">
-        <v>-61.721939999999996</v>
+        <v>-61.72194</v>
       </c>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -1307,9 +1357,9 @@
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" s="5">
-        <v>44399</v>
+        <v>44399.0</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>17</v>
@@ -1317,34 +1367,30 @@
       <c r="C15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="8">
-        <v>1</v>
-      </c>
-      <c r="E15" s="8">
-        <v>7</v>
-      </c>
-      <c r="F15" s="15">
-        <v>17.065639999999998</v>
-      </c>
-      <c r="G15" s="18">
-        <v>-61.662570000000002</v>
-      </c>
-      <c r="H15" s="6" t="s">
+      <c r="D15" s="25" t="s">
         <v>43</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="25">
+        <v>17.065383</v>
+      </c>
+      <c r="G15" s="26">
+        <v>-61.662417</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L15" s="20">
-        <v>17.163219999999999</v>
-      </c>
-      <c r="M15" s="20">
-        <v>-61.731520000000003</v>
-      </c>
+      <c r="J15" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" s="6"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
@@ -1359,9 +1405,9 @@
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" s="5">
-        <v>44399</v>
+        <v>44399.0</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>17</v>
@@ -1370,19 +1416,19 @@
         <v>32</v>
       </c>
       <c r="D16" s="8">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E16" s="8">
-        <v>9</v>
-      </c>
-      <c r="F16" s="15">
-        <v>17.065770000000001</v>
-      </c>
-      <c r="G16" s="18">
-        <v>-61.662779999999998</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>44</v>
+        <v>9.0</v>
+      </c>
+      <c r="F16" s="16">
+        <v>17.06577</v>
+      </c>
+      <c r="G16" s="19">
+        <v>-61.66278</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>34</v>
@@ -1391,11 +1437,11 @@
       <c r="K16" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="L16" s="20">
-        <v>17.163219999999999</v>
-      </c>
-      <c r="M16" s="20">
-        <v>-61.731520000000003</v>
+      <c r="L16" s="21">
+        <v>17.16322</v>
+      </c>
+      <c r="M16" s="21">
+        <v>-61.73152</v>
       </c>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
@@ -1411,21 +1457,21 @@
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17" s="21">
-        <v>44404</v>
+    <row r="17">
+      <c r="A17" s="27">
+        <v>44404.0</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D17" s="8">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E17" s="8">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="F17" s="8">
         <v>17.05256</v>
@@ -1433,8 +1479,8 @@
       <c r="G17" s="8">
         <v>-61.66769</v>
       </c>
-      <c r="H17" s="6" t="s">
-        <v>46</v>
+      <c r="H17" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>34</v>
@@ -1457,30 +1503,30 @@
       <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A18" s="21">
-        <v>44404</v>
+    <row r="18">
+      <c r="A18" s="27">
+        <v>44404.0</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D18" s="8">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E18" s="8">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="F18" s="8">
         <v>17.05228</v>
       </c>
       <c r="G18" s="8">
-        <v>-61.669910000000002</v>
+        <v>-61.66991</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>34</v>
@@ -1503,9 +1549,9 @@
       <c r="Y18" s="4"/>
       <c r="Z18" s="4"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A19" s="21">
-        <v>44404</v>
+    <row r="19">
+      <c r="A19" s="27">
+        <v>44404.0</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>13</v>
@@ -1514,19 +1560,19 @@
         <v>29</v>
       </c>
       <c r="D19" s="8">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E19" s="8">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="F19" s="8">
-        <v>17.142189999999999</v>
+        <v>17.14219</v>
       </c>
       <c r="G19" s="8">
-        <v>-61.721600000000002</v>
+        <v>-61.7216</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>34</v>
@@ -1549,9 +1595,9 @@
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A20" s="21">
-        <v>44404</v>
+    <row r="20">
+      <c r="A20" s="27">
+        <v>44404.0</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>13</v>
@@ -1560,19 +1606,19 @@
         <v>29</v>
       </c>
       <c r="D20" s="8">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E20" s="8">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="F20" s="8">
-        <v>17.140599999999999</v>
+        <v>17.1406</v>
       </c>
       <c r="G20" s="8">
         <v>-61.7211</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>34</v>
@@ -1595,9 +1641,9 @@
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A21" s="21">
-        <v>44404</v>
+    <row r="21">
+      <c r="A21" s="27">
+        <v>44404.0</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>13</v>
@@ -1606,19 +1652,19 @@
         <v>29</v>
       </c>
       <c r="D21" s="8">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E21" s="8">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="F21" s="8">
-        <v>17.139970000000002</v>
+        <v>17.13997</v>
       </c>
       <c r="G21" s="8">
-        <v>-61.721809999999998</v>
+        <v>-61.72181</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>16</v>
@@ -1641,30 +1687,30 @@
       <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" s="5">
-        <v>44397</v>
+        <v>44397.0</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D22" s="8">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E22" s="8">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="F22" s="9">
-        <v>17.082149999999999</v>
+        <v>17.08215</v>
       </c>
       <c r="G22" s="9">
-        <v>-61.665219999999998</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>53</v>
+        <v>-61.66522</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>55</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>20</v>
@@ -1687,9 +1733,9 @@
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A23" s="21">
-        <v>44404</v>
+    <row r="23">
+      <c r="A23" s="27">
+        <v>44404.0</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>13</v>
@@ -1698,19 +1744,19 @@
         <v>29</v>
       </c>
       <c r="D23" s="8">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E23" s="8">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="F23" s="8">
-        <v>17.139690000000002</v>
+        <v>17.13969</v>
       </c>
       <c r="G23" s="8">
-        <v>-61.723849999999999</v>
+        <v>-61.72385</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>16</v>
@@ -1733,9 +1779,9 @@
       <c r="Y23" s="4"/>
       <c r="Z23" s="4"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A24" s="21">
-        <v>44404</v>
+    <row r="24">
+      <c r="A24" s="27">
+        <v>44404.0</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>13</v>
@@ -1744,27 +1790,25 @@
         <v>27</v>
       </c>
       <c r="D24" s="8">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E24" s="8">
-        <v>18</v>
-      </c>
-      <c r="F24" s="8">
-        <v>17.148230000000002</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>55</v>
+        <v>18.0</v>
+      </c>
+      <c r="F24" s="25">
+        <v>17.148231</v>
+      </c>
+      <c r="G24" s="7">
+        <v>-61.723195</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>34</v>
       </c>
       <c r="J24" s="4"/>
-      <c r="K24" s="6" t="s">
-        <v>57</v>
-      </c>
+      <c r="K24" s="6"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
@@ -1781,9 +1825,9 @@
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A25" s="21">
-        <v>44404</v>
+    <row r="25">
+      <c r="A25" s="27">
+        <v>44404.0</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>13</v>
@@ -1792,27 +1836,25 @@
         <v>27</v>
       </c>
       <c r="D25" s="8">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E25" s="8">
-        <v>19</v>
-      </c>
-      <c r="F25" s="8">
-        <v>17.1479</v>
-      </c>
-      <c r="G25" s="6" t="s">
+        <v>19.0</v>
+      </c>
+      <c r="F25" s="25">
+        <v>17.147896</v>
+      </c>
+      <c r="G25" s="7">
+        <v>-61.723116</v>
+      </c>
+      <c r="H25" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>59</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>34</v>
       </c>
       <c r="J25" s="4"/>
-      <c r="K25" s="6" t="s">
-        <v>57</v>
-      </c>
+      <c r="K25" s="6"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
@@ -1829,9 +1871,9 @@
       <c r="Y25" s="4"/>
       <c r="Z25" s="4"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A26" s="21">
-        <v>44404</v>
+    <row r="26">
+      <c r="A26" s="27">
+        <v>44404.0</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>13</v>
@@ -1840,19 +1882,19 @@
         <v>27</v>
       </c>
       <c r="D26" s="8">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E26" s="8">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="F26" s="8">
-        <v>17.147030000000001</v>
+        <v>17.14703</v>
       </c>
       <c r="G26" s="8">
-        <v>-61.722859999999997</v>
+        <v>-61.72286</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>34</v>
@@ -1875,32 +1917,32 @@
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="A27" s="5">
-        <v>44397</v>
+        <v>44397.0</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D27" s="8">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="E27" s="8">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="F27" s="9">
         <f>17+4.917/60</f>
-        <v>17.081949999999999</v>
-      </c>
-      <c r="G27" s="10">
+        <v>17.08195</v>
+      </c>
+      <c r="G27" s="11">
         <f>-61-39.912/60</f>
-        <v>-61.665199999999999</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>61</v>
+        <v>-61.6652</v>
+      </c>
+      <c r="H27" s="28" t="s">
+        <v>60</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>20</v>
@@ -1923,32 +1965,32 @@
       <c r="Y27" s="4"/>
       <c r="Z27" s="4"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="A28" s="5">
-        <v>44397</v>
+        <v>44397.0</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D28" s="8">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="E28" s="8">
-        <v>2</v>
-      </c>
-      <c r="F28" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="F28" s="11">
         <f>17+4.61/60</f>
-        <v>17.076833333333333</v>
+        <v>17.07683333</v>
       </c>
       <c r="G28" s="9">
         <f>-61-39.815/60</f>
-        <v>-61.663583333333335</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>62</v>
+        <v>-61.66358333</v>
+      </c>
+      <c r="H28" s="28" t="s">
+        <v>61</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>20</v>
@@ -1971,32 +2013,32 @@
       <c r="Y28" s="4"/>
       <c r="Z28" s="4"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="A29" s="5">
-        <v>44397</v>
+        <v>44397.0</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D29" s="8">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="E29" s="8">
-        <v>3</v>
-      </c>
-      <c r="F29" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="F29" s="11">
         <f>17+4.598/60</f>
-        <v>17.076633333333334</v>
-      </c>
-      <c r="G29" s="10">
+        <v>17.07663333</v>
+      </c>
+      <c r="G29" s="11">
         <f>-61-39.762/60</f>
-        <v>-61.662700000000001</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>63</v>
+        <v>-61.6627</v>
+      </c>
+      <c r="H29" s="28" t="s">
+        <v>62</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>16</v>
@@ -2019,32 +2061,32 @@
       <c r="Y29" s="4"/>
       <c r="Z29" s="4"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="A30" s="5">
-        <v>44397</v>
+        <v>44397.0</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D30" s="8">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="E30" s="8">
-        <v>4</v>
-      </c>
-      <c r="F30" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="F30" s="11">
         <f>17+4.51/60</f>
-        <v>17.075166666666668</v>
-      </c>
-      <c r="G30" s="10">
+        <v>17.07516667</v>
+      </c>
+      <c r="G30" s="11">
         <f>-61-39.883/60</f>
-        <v>-61.664716666666664</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>64</v>
+        <v>-61.66471667</v>
+      </c>
+      <c r="H30" s="28" t="s">
+        <v>63</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>20</v>
@@ -2067,32 +2109,32 @@
       <c r="Y30" s="4"/>
       <c r="Z30" s="4"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="A31" s="5">
-        <v>44397</v>
+        <v>44397.0</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D31" s="8">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="E31" s="8">
-        <v>6</v>
-      </c>
-      <c r="F31" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="F31" s="11">
         <f>17+4.478/60</f>
-        <v>17.074633333333335</v>
-      </c>
-      <c r="G31" s="10">
+        <v>17.07463333</v>
+      </c>
+      <c r="G31" s="11">
         <f>-61-39.898/60</f>
-        <v>-61.664966666666665</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>65</v>
+        <v>-61.66496667</v>
+      </c>
+      <c r="H31" s="28" t="s">
+        <v>64</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>20</v>
@@ -2115,36 +2157,36 @@
       <c r="Y31" s="4"/>
       <c r="Z31" s="4"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="A32" s="5">
-        <v>44398</v>
+        <v>44398.0</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D32" s="8">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E32" s="8">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="F32" s="9">
-        <v>17.166993000000002</v>
-      </c>
-      <c r="G32" s="10">
-        <v>-61.730004999999998</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>66</v>
+        <v>17.166993</v>
+      </c>
+      <c r="G32" s="11">
+        <v>-61.730005</v>
+      </c>
+      <c r="H32" s="28" t="s">
+        <v>65</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J32" s="23" t="s">
-        <v>67</v>
+      <c r="J32" s="29" t="s">
+        <v>66</v>
       </c>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
@@ -2163,30 +2205,30 @@
       <c r="Y32" s="4"/>
       <c r="Z32" s="4"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="A33" s="5">
-        <v>44398</v>
+        <v>44398.0</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D33" s="8">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="E33" s="8">
-        <v>9</v>
-      </c>
-      <c r="F33" s="20">
+        <v>9.0</v>
+      </c>
+      <c r="F33" s="21">
         <v>17.16488</v>
       </c>
-      <c r="G33" s="20">
-        <v>-61.730409999999999</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>68</v>
+      <c r="G33" s="21">
+        <v>-61.73041</v>
+      </c>
+      <c r="H33" s="28" t="s">
+        <v>67</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>20</v>
@@ -2209,32 +2251,32 @@
       <c r="Y33" s="4"/>
       <c r="Z33" s="4"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="A34" s="5">
-        <v>44397</v>
+        <v>44397.0</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D34" s="8">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="E34" s="8">
-        <v>5</v>
-      </c>
-      <c r="F34" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="F34" s="11">
         <f>17+4.48/60</f>
-        <v>17.074666666666666</v>
+        <v>17.07466667</v>
       </c>
       <c r="G34" s="9">
         <f>-61-39.892/60</f>
-        <v>-61.664866666666668</v>
+        <v>-61.66486667</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I34" s="6" t="s">
         <v>20</v>
@@ -2257,30 +2299,30 @@
       <c r="Y34" s="4"/>
       <c r="Z34" s="4"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="A35" s="5">
-        <v>44398</v>
+        <v>44398.0</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D35" s="8">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="E35" s="8">
-        <v>10</v>
-      </c>
-      <c r="F35" s="20">
-        <v>17.164829999999998</v>
-      </c>
-      <c r="G35" s="20">
-        <v>-61.730359999999997</v>
+        <v>10.0</v>
+      </c>
+      <c r="F35" s="21">
+        <v>17.16483</v>
+      </c>
+      <c r="G35" s="21">
+        <v>-61.73036</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I35" s="6" t="s">
         <v>34</v>
@@ -2303,9 +2345,9 @@
       <c r="Y35" s="4"/>
       <c r="Z35" s="4"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="A36" s="5">
-        <v>44398</v>
+        <v>44398.0</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>17</v>
@@ -2314,19 +2356,19 @@
         <v>29</v>
       </c>
       <c r="D36" s="8">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="E36" s="8">
-        <v>15</v>
-      </c>
-      <c r="F36" s="20">
-        <v>17.141749999999998</v>
-      </c>
-      <c r="G36" s="20">
-        <v>-61.721919999999997</v>
+        <v>15.0</v>
+      </c>
+      <c r="F36" s="21">
+        <v>17.14175</v>
+      </c>
+      <c r="G36" s="21">
+        <v>-61.72192</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>20</v>
@@ -2349,9 +2391,9 @@
       <c r="Y36" s="4"/>
       <c r="Z36" s="4"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="A37" s="5">
-        <v>44398</v>
+        <v>44398.0</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>17</v>
@@ -2359,34 +2401,30 @@
       <c r="C37" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="8">
-        <v>2</v>
-      </c>
-      <c r="E37" s="8">
-        <v>17</v>
-      </c>
-      <c r="F37" s="15">
-        <v>17.139769999999999</v>
-      </c>
-      <c r="G37" s="15">
-        <v>-61.72119</v>
-      </c>
-      <c r="H37" s="6" t="s">
+      <c r="D37" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" s="25">
+        <v>17.140289</v>
+      </c>
+      <c r="G37" s="25">
+        <v>-61.721907</v>
+      </c>
+      <c r="H37" s="10" t="s">
         <v>72</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6" t="s">
+      <c r="J37" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="L37" s="20">
-        <v>17.14179</v>
-      </c>
-      <c r="M37" s="8">
-        <v>-61.721939999999996</v>
-      </c>
+      <c r="K37" s="6"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="8"/>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
@@ -2401,9 +2439,9 @@
       <c r="Y37" s="4"/>
       <c r="Z37" s="4"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="A38" s="5">
-        <v>44399</v>
+        <v>44399.0</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>17</v>
@@ -2412,16 +2450,16 @@
         <v>32</v>
       </c>
       <c r="D38" s="8">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E38" s="8">
-        <v>8</v>
-      </c>
-      <c r="F38" s="18">
-        <v>17.065860000000001</v>
-      </c>
-      <c r="G38" s="15">
-        <v>-61.662700000000001</v>
+        <v>8.0</v>
+      </c>
+      <c r="F38" s="19">
+        <v>17.06586</v>
+      </c>
+      <c r="G38" s="16">
+        <v>-61.6627</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>74</v>
@@ -2433,11 +2471,11 @@
       <c r="K38" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="L38" s="20">
-        <v>17.163219999999999</v>
-      </c>
-      <c r="M38" s="20">
-        <v>-61.731520000000003</v>
+      <c r="L38" s="21">
+        <v>17.16322</v>
+      </c>
+      <c r="M38" s="21">
+        <v>-61.73152</v>
       </c>
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
@@ -2453,9 +2491,9 @@
       <c r="Y38" s="4"/>
       <c r="Z38" s="4"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A39" s="21">
-        <v>44404</v>
+    <row r="39">
+      <c r="A39" s="22">
+        <v>44405.0</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>13</v>
@@ -2464,18 +2502,18 @@
         <v>29</v>
       </c>
       <c r="D39" s="8">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E39" s="8">
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="F39" s="8">
         <v>17.14029</v>
       </c>
       <c r="G39" s="8">
-        <v>-61.720779999999998</v>
-      </c>
-      <c r="H39" s="6" t="s">
+        <v>-61.72078</v>
+      </c>
+      <c r="H39" s="10" t="s">
         <v>75</v>
       </c>
       <c r="I39" s="6" t="s">
@@ -2499,9 +2537,9 @@
       <c r="Y39" s="4"/>
       <c r="Z39" s="4"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A40" s="21">
-        <v>44404</v>
+    <row r="40">
+      <c r="A40" s="22">
+        <v>44405.0</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>13</v>
@@ -2510,16 +2548,16 @@
         <v>27</v>
       </c>
       <c r="D40" s="8">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E40" s="8">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="F40" s="8">
-        <v>17.147040000000001</v>
+        <v>17.14704</v>
       </c>
       <c r="G40" s="8">
-        <v>-61.722850000000001</v>
+        <v>-61.72285</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>76</v>
@@ -2545,7 +2583,161 @@
       <c r="Y40" s="4"/>
       <c r="Z40" s="4"/>
     </row>
+    <row r="41">
+      <c r="A41" s="30">
+        <v>44502.0</v>
+      </c>
+      <c r="B41" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" s="31">
+        <v>1.0</v>
+      </c>
+      <c r="E41" s="31">
+        <v>22.0</v>
+      </c>
+      <c r="F41" s="31">
+        <v>17.139911</v>
+      </c>
+      <c r="G41" s="31">
+        <v>-61.721393</v>
+      </c>
+      <c r="H41" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="I41" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="30">
+        <v>44503.0</v>
+      </c>
+      <c r="B42" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="E42" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" s="31">
+        <v>17.06555</v>
+      </c>
+      <c r="G42" s="31">
+        <v>-61.662967</v>
+      </c>
+      <c r="H42" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="I42" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="32">
+        <v>44510.0</v>
+      </c>
+      <c r="B43" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" s="31">
+        <v>1.0</v>
+      </c>
+      <c r="E43" s="31">
+        <v>24.0</v>
+      </c>
+      <c r="F43" s="31">
+        <v>17.13665</v>
+      </c>
+      <c r="G43" s="31">
+        <v>-61.721875</v>
+      </c>
+      <c r="H43" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="I43" s="33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="32">
+        <v>44510.0</v>
+      </c>
+      <c r="B44" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" s="31">
+        <v>1.0</v>
+      </c>
+      <c r="E44" s="31">
+        <v>25.0</v>
+      </c>
+      <c r="F44" s="31">
+        <v>17.137205</v>
+      </c>
+      <c r="G44" s="31">
+        <v>-61.719345</v>
+      </c>
+      <c r="H44" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="I44" s="31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="32">
+        <v>44510.0</v>
+      </c>
+      <c r="B45" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="31">
+        <v>1.0</v>
+      </c>
+      <c r="E45" s="31">
+        <v>26.0</v>
+      </c>
+      <c r="F45" s="31">
+        <v>17.140118</v>
+      </c>
+      <c r="G45" s="31">
+        <v>-61.721773</v>
+      </c>
+      <c r="H45" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="I45" s="31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="32"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="32"/>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>